--- a/Evaluations.xlsx
+++ b/Evaluations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nonod\Documents\Etudes\_IUT\3A\FastNotes\fast-notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611DDE7-C8EB-45DA-8286-D96DBE3C1BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61ED34D0-A576-4355-88C5-9FD0CC60FBAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{729091D8-3898-4C05-B611-3F47A9095509}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{40751DA0-B8B5-481D-A5A7-3562C6E34BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>libelle</t>
   </si>
@@ -56,26 +56,35 @@
     <t>code_ressource</t>
   </si>
   <si>
-    <t>TEST insert 1</t>
-  </si>
-  <si>
     <t>Ecrit</t>
   </si>
   <si>
     <t>BFTA5R10</t>
   </si>
   <si>
-    <t>"2024-01-12  10:40:38</t>
+    <t>TEST insert 4</t>
+  </si>
+  <si>
+    <t>TEST insert 5</t>
+  </si>
+  <si>
+    <t>2024-01-12  00:00:00</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -103,7 +112,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,19 +446,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F891665-A32D-45AD-9EDD-764CF366A45C}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C2EEFA4-FAAD-4700-BF49-1235C8FE0516}">
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
-    <col min="5" max="5" width="23.21875" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="5" max="5" width="19.77734375" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -474,29 +482,46 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D5" s="1"/>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>